--- a/Informations.xlsx
+++ b/Informations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truong_CDGTVT\NAM2_HK2\ASP.NET\Du_An_ASP_QL_NhaHang\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truong_CDGTVT\NAM2_HK2\ASP.NET\Du_An_ASP_QL_NhaHang\Project\Project_ASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E1445C-3498-41BF-8C34-EA5CD43411C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE045590-F881-45DB-A671-399EF06F33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{476F6F13-155A-4D65-9FB9-E61D066B9606}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="5" xr2:uid="{476F6F13-155A-4D65-9FB9-E61D066B9606}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="215">
   <si>
     <t>Customer</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Down Payment( Tiền cọc)</t>
   </si>
   <si>
-    <t>char(8)</t>
-  </si>
-  <si>
-    <t>Nvarchar(20)</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
   </si>
   <si>
     <t>TableID</t>
-  </si>
-  <si>
-    <t>FoodDrink</t>
   </si>
   <si>
     <t>OrderDate</t>
@@ -658,13 +649,58 @@
   </si>
   <si>
     <t>0422785895</t>
+  </si>
+  <si>
+    <t>20 kí tự</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>char(3)</t>
+  </si>
+  <si>
+    <t>LongText</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>Lấy SĐT lun</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Mặc định : No</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Varchar(10)</t>
+  </si>
+  <si>
+    <t>Varchar(50)</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>Nvarchar(100)</t>
+  </si>
+  <si>
+    <t>Ngay chỗ order ko có 1 order nhìu bàn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +748,14 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -874,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,6 +963,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,350 +1314,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EE3CBD-BF60-452F-9827-A7F4995E1D46}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="26.21875" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="6.109375" customWidth="1"/>
     <col min="9" max="9" width="27.109375" customWidth="1"/>
     <col min="10" max="10" width="35.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="E1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="I1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="I1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="I9" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
+      <c r="G24" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1621,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77A5317-69E5-46FC-88B6-A365675AC507}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,43 +1744,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1679,16 +1788,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1696,16 +1805,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1713,70 +1822,70 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1784,36 +1893,36 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1941,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1842,37 +1951,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1887,12 +1996,12 @@
         <v>44965</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1907,12 +2016,12 @@
         <v>44959</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1927,21 +2036,21 @@
         <v>44950</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1956,7 +2065,7 @@
         <v>44931</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +2082,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,21 +2094,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2010,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2021,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2032,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2043,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2054,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2065,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2073,26 +2182,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+        <v>86</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="11">
         <v>8</v>
@@ -2101,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2109,10 +2218,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11" s="11">
         <v>9</v>
@@ -2121,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2129,10 +2238,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2143,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2151,26 +2260,26 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+        <v>86</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" s="15">
         <v>13</v>
@@ -2179,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2187,10 +2296,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="17">
         <v>14</v>
@@ -2199,33 +2308,33 @@
         <v>1</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2244,7 +2353,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2254,42 +2363,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6">
         <v>44965</v>
@@ -2301,15 +2410,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6">
         <v>44959</v>
@@ -2321,15 +2430,15 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="20">
         <v>44950</v>
@@ -2341,15 +2450,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="b">
@@ -2359,15 +2468,15 @@
         <v>5</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="b">
@@ -2377,15 +2486,15 @@
         <v>6</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6">
         <v>44965</v>
@@ -2397,25 +2506,25 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="20">
         <v>44931</v>
@@ -2427,15 +2536,15 @@
         <v>8</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="b">
@@ -2445,15 +2554,15 @@
         <v>9</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6">
         <v>45140</v>
@@ -2465,15 +2574,15 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" s="6">
         <v>45140</v>
@@ -2485,10 +2594,10 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2503,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03FB84D-A841-4781-B687-8246ACD2172D}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2517,37 +2626,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2558,7 +2667,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2569,7 +2678,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -2580,10 +2689,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2594,7 +2703,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2605,7 +2714,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2616,7 +2725,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2627,7 +2736,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2638,10 +2747,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2652,7 +2761,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2663,7 +2772,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2674,7 +2783,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2685,7 +2794,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2696,7 +2805,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2707,7 +2816,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -2718,7 +2827,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -2729,10 +2838,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2743,7 +2852,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2754,7 +2863,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2765,13 +2874,18 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
         <v>45000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2787,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AE6E71-F4BB-419F-9F6F-E11F88C895CE}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,212 +2917,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G3">
         <v>2000000</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="I3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>1000000</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>45000</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G6">
         <v>45000</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7">
         <v>45000</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8">
         <v>50000</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>50000</v>
@@ -3016,19 +3130,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G10">
         <v>75000</v>
@@ -3036,19 +3150,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G11">
         <v>10000</v>
@@ -3056,19 +3170,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>15000</v>
@@ -3076,19 +3190,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13">
         <v>15000</v>
@@ -3096,19 +3210,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
         <v>147</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>150</v>
       </c>
-      <c r="D14" t="s">
-        <v>153</v>
-      </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14">
         <v>15000</v>
@@ -3116,19 +3230,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
         <v>148</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>151</v>
       </c>
-      <c r="D15" t="s">
-        <v>154</v>
-      </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G15">
         <v>15000</v>
@@ -3136,19 +3250,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>152</v>
       </c>
-      <c r="D16" t="s">
-        <v>155</v>
-      </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16">
         <v>15000</v>
@@ -3168,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ADDAFF-D6F9-4FC5-BFE3-88FC6D8EA6A8}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,82 +3301,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E3" s="6">
         <v>36587</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J3">
         <v>1234</v>
@@ -3273,31 +3387,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E4" s="6">
         <v>36203</v>
       </c>
       <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>170</v>
-      </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J4">
         <v>4321</v>
@@ -3308,31 +3422,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E5" s="6">
         <v>36239</v>
       </c>
       <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" t="s">
         <v>175</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" t="s">
-        <v>178</v>
       </c>
       <c r="J5">
         <v>2345</v>
@@ -3343,31 +3457,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E6" s="6">
         <v>36663</v>
       </c>
       <c r="F6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" t="s">
         <v>181</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" t="s">
-        <v>184</v>
       </c>
       <c r="J6">
         <v>5432</v>
@@ -3378,31 +3492,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="6">
         <v>36037</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J7">
         <v>3456</v>
@@ -3413,31 +3527,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E8" s="6">
         <v>36489</v>
       </c>
       <c r="F8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" t="s">
         <v>192</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" t="s">
-        <v>195</v>
       </c>
       <c r="J8">
         <v>6543</v>
@@ -3448,31 +3562,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="6">
         <v>36061</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J9">
         <v>4567</v>
